--- a/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Giuliani/Guitar/Variations.xlsx
+++ b/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Giuliani/Guitar/Variations.xlsx
@@ -1,180 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
-    <t>Composer</t>
+    <t xml:space="preserve">Composer</t>
   </si>
   <si>
-    <t>Title</t>
+    <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t>Year of Composition</t>
+    <t xml:space="preserve">Year of Composition</t>
   </si>
   <si>
-    <t>Year of Publication</t>
+    <t xml:space="preserve">Year of Publication</t>
   </si>
   <si>
-    <t>Publisher</t>
+    <t xml:space="preserve">Publisher</t>
   </si>
   <si>
-    <t>Editor</t>
+    <t xml:space="preserve">Editor</t>
   </si>
   <si>
-    <t>Movement of Work</t>
+    <t xml:space="preserve">Movement of Work</t>
   </si>
   <si>
-    <t>Key</t>
+    <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t>Tempo Indication</t>
+    <t xml:space="preserve">Tempo Indication</t>
   </si>
   <si>
-    <t>Metre</t>
+    <t xml:space="preserve">Metre</t>
   </si>
   <si>
-    <t>Metronome Marking</t>
+    <t xml:space="preserve">Metronome Marking</t>
   </si>
   <si>
-    <t>Fastest Structural Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Structural Notes (notes/s)</t>
   </si>
   <si>
-    <t>Fastest Stacatto Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Stacatto Notes (notes/s)</t>
   </si>
   <si>
-    <t>Fastest Ornamental Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Ornamental Notes (notes/s)</t>
   </si>
   <si>
-    <t>Additional Notes</t>
+    <t xml:space="preserve">Additional Notes</t>
   </si>
   <si>
-    <t>Link</t>
+    <t xml:space="preserve">Link</t>
   </si>
   <si>
-    <t>Giuliani, Mauro</t>
+    <t xml:space="preserve">Giuliani, Mauro</t>
   </si>
   <si>
-    <t>Variations on a Theme by Handel, Op.107</t>
+    <t xml:space="preserve">Variations on a Theme by Handel, Op.107</t>
   </si>
   <si>
-    <t>Hofmeister</t>
+    <t xml:space="preserve">Hofmeister</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t>Theme</t>
+    <t xml:space="preserve">Theme</t>
   </si>
   <si>
-    <t>A major</t>
+    <t xml:space="preserve">A major</t>
   </si>
   <si>
-    <t>Andantino</t>
+    <t xml:space="preserve">Andantino</t>
   </si>
   <si>
-    <t>H (Q) = 88</t>
+    <t xml:space="preserve">H (Q) = 88</t>
   </si>
   <si>
-    <t>11.73 (5.87)</t>
+    <t xml:space="preserve">11.73 (5.87)</t>
   </si>
   <si>
-    <t>46.93 (23.47)</t>
+    <t xml:space="preserve">46.93 (23.47)</t>
   </si>
   <si>
-    <t>Very likely a misprint</t>
+    <t xml:space="preserve">Very likely a misprint</t>
   </si>
   <si>
-    <t>https://s9.imslp.org/files/imglnks/usimg/3/36/IMSLP480058-PMLP130014-op_107,_Variations_-_Haendel.pdf</t>
+    <t xml:space="preserve">https://s9.imslp.org/files/imglnks/usimg/3/36/IMSLP480058-PMLP130014-op_107,_Variations_-_Haendel.pdf</t>
   </si>
   <si>
-    <t>Variations on a Theme by Carafa, Op. 114</t>
+    <t xml:space="preserve">Variations on a Theme by Carafa, Op. 114</t>
   </si>
   <si>
-    <t>Diabelli</t>
+    <t xml:space="preserve">Diabelli</t>
   </si>
   <si>
-    <t>http://maurogiuliani.free.fr/partitions/Op%20114%20Gran%20Variazioni%20sopra%20l%20aria%20favorita%20O%20cara%20memoria%20del%20Sig%20Carafa.pdf</t>
+    <t xml:space="preserve">http://maurogiuliani.free.fr/partitions/Op%20114%20Gran%20Variazioni%20sopra%20l%20aria%20favorita%20O%20cara%20memoria%20del%20Sig%20Carafa.pdf</t>
   </si>
   <si>
-    <t>Introduction</t>
+    <t xml:space="preserve">Introduction</t>
   </si>
   <si>
-    <t>A minor</t>
+    <t xml:space="preserve">A minor</t>
   </si>
   <si>
-    <t>Andante sostenuto</t>
+    <t xml:space="preserve">Andante sostenuto</t>
   </si>
   <si>
-    <t>C</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t>Q = 54</t>
+    <t xml:space="preserve">Q = 54</t>
   </si>
   <si>
-    <t>Maestoso</t>
+    <t xml:space="preserve">Maestoso</t>
   </si>
   <si>
-    <t>H = 54</t>
+    <t xml:space="preserve">C-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H = 54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="12.0"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12.0"/>
+      <u val="single"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <strike val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,327 +223,220 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
+        <patternFill>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF1155CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AF995"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="15" max="15" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,18 +502,18 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
-        <v>1828.0</v>
+      <c r="C2" s="4" t="n">
+        <v>1828</v>
       </c>
-      <c r="D2" s="4">
-        <v>1828.0</v>
+      <c r="D2" s="4" t="n">
+        <v>1828</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -596,8 +530,8 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6">
-        <v>44596.0</v>
+      <c r="J2" s="6" t="n">
+        <v>44596</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>23</v>
@@ -634,18 +568,18 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4">
-        <v>1829.0</v>
+      <c r="C3" s="4" t="n">
+        <v>1829</v>
       </c>
-      <c r="D3" s="4">
-        <v>1829.0</v>
+      <c r="D3" s="4" t="n">
+        <v>1829</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>29</v>
@@ -654,15 +588,15 @@
         <v>19</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="3"/>
@@ -682,13 +616,13 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
@@ -704,14 +638,14 @@
       <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>8.1</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>8.1</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -730,38 +664,38 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="13">
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="3" t="n">
         <v>28.8</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -780,7 +714,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -814,7 +748,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -848,7 +782,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -882,7 +816,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -916,7 +850,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -950,7 +884,7 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -984,7 +918,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1018,7 +952,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1052,7 +986,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1086,7 +1020,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1120,7 +1054,7 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1154,7 +1088,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1188,7 +1122,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1222,7 +1156,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1256,7 +1190,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1290,7 +1224,7 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1324,7 +1258,7 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1358,7 +1292,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1392,7 +1326,7 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1426,7 +1360,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1460,7 +1394,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1494,7 +1428,7 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1528,7 +1462,7 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1562,7 +1496,7 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1596,7 +1530,7 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1630,7 +1564,7 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1664,7 +1598,7 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1698,7 +1632,7 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1732,7 +1666,7 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1766,7 +1700,7 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1800,7 +1734,7 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1834,7 +1768,7 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1868,7 +1802,7 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1902,7 +1836,7 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1936,7 +1870,7 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1970,7 +1904,7 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2004,7 +1938,7 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2038,7 +1972,7 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2072,7 +2006,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2106,7 +2040,7 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2140,7 +2074,7 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2174,7 +2108,7 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2208,7 +2142,7 @@
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2242,7 +2176,7 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2276,7 +2210,7 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2310,7 +2244,7 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2344,7 +2278,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2378,7 +2312,7 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2412,7 +2346,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2446,7 +2380,7 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2480,7 +2414,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2514,7 +2448,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2548,7 +2482,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2582,7 +2516,7 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2616,7 +2550,7 @@
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2650,7 +2584,7 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2684,7 +2618,7 @@
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2718,7 +2652,7 @@
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2752,7 +2686,7 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2786,7 +2720,7 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2820,7 +2754,7 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2854,7 +2788,7 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2888,7 +2822,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2922,7 +2856,7 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2956,7 +2890,7 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2990,7 +2924,7 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3024,7 +2958,7 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3058,7 +2992,7 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3092,7 +3026,7 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3126,7 +3060,7 @@
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3160,7 +3094,7 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3194,7 +3128,7 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3228,7 +3162,7 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3262,7 +3196,7 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3296,7 +3230,7 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3330,7 +3264,7 @@
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3364,7 +3298,7 @@
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3398,7 +3332,7 @@
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3432,7 +3366,7 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3466,7 +3400,7 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3500,7 +3434,7 @@
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3534,7 +3468,7 @@
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3568,7 +3502,7 @@
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3602,7 +3536,7 @@
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3636,7 +3570,7 @@
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3670,7 +3604,7 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3704,7 +3638,7 @@
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3738,7 +3672,7 @@
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3772,7 +3706,7 @@
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3806,7 +3740,7 @@
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3840,7 +3774,7 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3874,7 +3808,7 @@
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3908,7 +3842,7 @@
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3942,7 +3876,7 @@
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3976,7 +3910,7 @@
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4010,7 +3944,7 @@
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4044,7 +3978,7 @@
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4078,7 +4012,7 @@
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4112,7 +4046,7 @@
       <c r="AE103" s="3"/>
       <c r="AF103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4146,7 +4080,7 @@
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4180,7 +4114,7 @@
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4214,7 +4148,7 @@
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4248,7 +4182,7 @@
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4282,7 +4216,7 @@
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4316,7 +4250,7 @@
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4350,7 +4284,7 @@
       <c r="AE110" s="3"/>
       <c r="AF110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4384,7 +4318,7 @@
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4418,7 +4352,7 @@
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4452,7 +4386,7 @@
       <c r="AE113" s="3"/>
       <c r="AF113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4486,7 +4420,7 @@
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4520,7 +4454,7 @@
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4554,7 +4488,7 @@
       <c r="AE116" s="3"/>
       <c r="AF116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4588,7 +4522,7 @@
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4622,7 +4556,7 @@
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4656,7 +4590,7 @@
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4690,7 +4624,7 @@
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4724,7 +4658,7 @@
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4758,7 +4692,7 @@
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4792,7 +4726,7 @@
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4826,7 +4760,7 @@
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4860,7 +4794,7 @@
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4894,7 +4828,7 @@
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4928,7 +4862,7 @@
       <c r="AE127" s="3"/>
       <c r="AF127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4962,7 +4896,7 @@
       <c r="AE128" s="3"/>
       <c r="AF128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4996,7 +4930,7 @@
       <c r="AE129" s="3"/>
       <c r="AF129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5030,7 +4964,7 @@
       <c r="AE130" s="3"/>
       <c r="AF130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5064,7 +4998,7 @@
       <c r="AE131" s="3"/>
       <c r="AF131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5098,7 +5032,7 @@
       <c r="AE132" s="3"/>
       <c r="AF132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5132,7 +5066,7 @@
       <c r="AE133" s="3"/>
       <c r="AF133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5166,7 +5100,7 @@
       <c r="AE134" s="3"/>
       <c r="AF134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5200,7 +5134,7 @@
       <c r="AE135" s="3"/>
       <c r="AF135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5234,7 +5168,7 @@
       <c r="AE136" s="3"/>
       <c r="AF136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5268,7 +5202,7 @@
       <c r="AE137" s="3"/>
       <c r="AF137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5302,7 +5236,7 @@
       <c r="AE138" s="3"/>
       <c r="AF138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5336,7 +5270,7 @@
       <c r="AE139" s="3"/>
       <c r="AF139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5370,7 +5304,7 @@
       <c r="AE140" s="3"/>
       <c r="AF140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5404,7 +5338,7 @@
       <c r="AE141" s="3"/>
       <c r="AF141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5438,7 +5372,7 @@
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5472,7 +5406,7 @@
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5506,7 +5440,7 @@
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5540,7 +5474,7 @@
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5574,7 +5508,7 @@
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5608,7 +5542,7 @@
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5642,7 +5576,7 @@
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5676,7 +5610,7 @@
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5710,7 +5644,7 @@
       <c r="AE150" s="3"/>
       <c r="AF150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5744,7 +5678,7 @@
       <c r="AE151" s="3"/>
       <c r="AF151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5778,7 +5712,7 @@
       <c r="AE152" s="3"/>
       <c r="AF152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5812,7 +5746,7 @@
       <c r="AE153" s="3"/>
       <c r="AF153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5846,7 +5780,7 @@
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5880,7 +5814,7 @@
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5914,7 +5848,7 @@
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5948,7 +5882,7 @@
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5982,7 +5916,7 @@
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6016,7 +5950,7 @@
       <c r="AE159" s="3"/>
       <c r="AF159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6050,7 +5984,7 @@
       <c r="AE160" s="3"/>
       <c r="AF160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6084,7 +6018,7 @@
       <c r="AE161" s="3"/>
       <c r="AF161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6118,7 +6052,7 @@
       <c r="AE162" s="3"/>
       <c r="AF162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6152,7 +6086,7 @@
       <c r="AE163" s="3"/>
       <c r="AF163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6186,7 +6120,7 @@
       <c r="AE164" s="3"/>
       <c r="AF164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6220,7 +6154,7 @@
       <c r="AE165" s="3"/>
       <c r="AF165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6254,7 +6188,7 @@
       <c r="AE166" s="3"/>
       <c r="AF166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6288,7 +6222,7 @@
       <c r="AE167" s="3"/>
       <c r="AF167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6322,7 +6256,7 @@
       <c r="AE168" s="3"/>
       <c r="AF168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6356,7 +6290,7 @@
       <c r="AE169" s="3"/>
       <c r="AF169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6390,7 +6324,7 @@
       <c r="AE170" s="3"/>
       <c r="AF170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6424,7 +6358,7 @@
       <c r="AE171" s="3"/>
       <c r="AF171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6458,7 +6392,7 @@
       <c r="AE172" s="3"/>
       <c r="AF172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6492,7 +6426,7 @@
       <c r="AE173" s="3"/>
       <c r="AF173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6526,7 +6460,7 @@
       <c r="AE174" s="3"/>
       <c r="AF174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6560,7 +6494,7 @@
       <c r="AE175" s="3"/>
       <c r="AF175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6594,7 +6528,7 @@
       <c r="AE176" s="3"/>
       <c r="AF176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6628,7 +6562,7 @@
       <c r="AE177" s="3"/>
       <c r="AF177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6662,7 +6596,7 @@
       <c r="AE178" s="3"/>
       <c r="AF178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6696,7 +6630,7 @@
       <c r="AE179" s="3"/>
       <c r="AF179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6730,7 +6664,7 @@
       <c r="AE180" s="3"/>
       <c r="AF180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6764,7 +6698,7 @@
       <c r="AE181" s="3"/>
       <c r="AF181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6798,7 +6732,7 @@
       <c r="AE182" s="3"/>
       <c r="AF182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6832,7 +6766,7 @@
       <c r="AE183" s="3"/>
       <c r="AF183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6866,7 +6800,7 @@
       <c r="AE184" s="3"/>
       <c r="AF184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6900,7 +6834,7 @@
       <c r="AE185" s="3"/>
       <c r="AF185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6934,7 +6868,7 @@
       <c r="AE186" s="3"/>
       <c r="AF186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6968,7 +6902,7 @@
       <c r="AE187" s="3"/>
       <c r="AF187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -7002,7 +6936,7 @@
       <c r="AE188" s="3"/>
       <c r="AF188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -7036,7 +6970,7 @@
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -7070,7 +7004,7 @@
       <c r="AE190" s="3"/>
       <c r="AF190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -7104,7 +7038,7 @@
       <c r="AE191" s="3"/>
       <c r="AF191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -7138,7 +7072,7 @@
       <c r="AE192" s="3"/>
       <c r="AF192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7172,7 +7106,7 @@
       <c r="AE193" s="3"/>
       <c r="AF193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7206,7 +7140,7 @@
       <c r="AE194" s="3"/>
       <c r="AF194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7240,7 +7174,7 @@
       <c r="AE195" s="3"/>
       <c r="AF195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7274,7 +7208,7 @@
       <c r="AE196" s="3"/>
       <c r="AF196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7308,7 +7242,7 @@
       <c r="AE197" s="3"/>
       <c r="AF197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7342,7 +7276,7 @@
       <c r="AE198" s="3"/>
       <c r="AF198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7376,7 +7310,7 @@
       <c r="AE199" s="3"/>
       <c r="AF199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7410,7 +7344,7 @@
       <c r="AE200" s="3"/>
       <c r="AF200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7444,7 +7378,7 @@
       <c r="AE201" s="3"/>
       <c r="AF201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7478,7 +7412,7 @@
       <c r="AE202" s="3"/>
       <c r="AF202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7512,7 +7446,7 @@
       <c r="AE203" s="3"/>
       <c r="AF203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7546,7 +7480,7 @@
       <c r="AE204" s="3"/>
       <c r="AF204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7580,7 +7514,7 @@
       <c r="AE205" s="3"/>
       <c r="AF205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7614,7 +7548,7 @@
       <c r="AE206" s="3"/>
       <c r="AF206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7648,7 +7582,7 @@
       <c r="AE207" s="3"/>
       <c r="AF207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7682,7 +7616,7 @@
       <c r="AE208" s="3"/>
       <c r="AF208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7716,7 +7650,7 @@
       <c r="AE209" s="3"/>
       <c r="AF209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7750,7 +7684,7 @@
       <c r="AE210" s="3"/>
       <c r="AF210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7784,7 +7718,7 @@
       <c r="AE211" s="3"/>
       <c r="AF211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7818,7 +7752,7 @@
       <c r="AE212" s="3"/>
       <c r="AF212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7852,7 +7786,7 @@
       <c r="AE213" s="3"/>
       <c r="AF213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7886,7 +7820,7 @@
       <c r="AE214" s="3"/>
       <c r="AF214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7920,7 +7854,7 @@
       <c r="AE215" s="3"/>
       <c r="AF215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7954,7 +7888,7 @@
       <c r="AE216" s="3"/>
       <c r="AF216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7988,7 +7922,7 @@
       <c r="AE217" s="3"/>
       <c r="AF217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -8022,7 +7956,7 @@
       <c r="AE218" s="3"/>
       <c r="AF218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -8056,7 +7990,7 @@
       <c r="AE219" s="3"/>
       <c r="AF219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -8090,7 +8024,7 @@
       <c r="AE220" s="3"/>
       <c r="AF220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -8124,7 +8058,7 @@
       <c r="AE221" s="3"/>
       <c r="AF221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -8158,7 +8092,7 @@
       <c r="AE222" s="3"/>
       <c r="AF222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -8192,7 +8126,7 @@
       <c r="AE223" s="3"/>
       <c r="AF223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -8226,7 +8160,7 @@
       <c r="AE224" s="3"/>
       <c r="AF224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -8260,7 +8194,7 @@
       <c r="AE225" s="3"/>
       <c r="AF225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -8294,7 +8228,7 @@
       <c r="AE226" s="3"/>
       <c r="AF226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -8328,7 +8262,7 @@
       <c r="AE227" s="3"/>
       <c r="AF227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -8362,7 +8296,7 @@
       <c r="AE228" s="3"/>
       <c r="AF228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -8396,7 +8330,7 @@
       <c r="AE229" s="3"/>
       <c r="AF229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -8430,7 +8364,7 @@
       <c r="AE230" s="3"/>
       <c r="AF230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -8464,7 +8398,7 @@
       <c r="AE231" s="3"/>
       <c r="AF231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -8498,7 +8432,7 @@
       <c r="AE232" s="3"/>
       <c r="AF232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -8532,7 +8466,7 @@
       <c r="AE233" s="3"/>
       <c r="AF233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -8566,7 +8500,7 @@
       <c r="AE234" s="3"/>
       <c r="AF234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -8600,7 +8534,7 @@
       <c r="AE235" s="3"/>
       <c r="AF235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -8634,7 +8568,7 @@
       <c r="AE236" s="3"/>
       <c r="AF236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -8668,7 +8602,7 @@
       <c r="AE237" s="3"/>
       <c r="AF237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -8702,7 +8636,7 @@
       <c r="AE238" s="3"/>
       <c r="AF238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -8736,7 +8670,7 @@
       <c r="AE239" s="3"/>
       <c r="AF239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -8770,7 +8704,7 @@
       <c r="AE240" s="3"/>
       <c r="AF240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -8804,7 +8738,7 @@
       <c r="AE241" s="3"/>
       <c r="AF241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -8838,7 +8772,7 @@
       <c r="AE242" s="3"/>
       <c r="AF242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -8872,7 +8806,7 @@
       <c r="AE243" s="3"/>
       <c r="AF243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -8906,7 +8840,7 @@
       <c r="AE244" s="3"/>
       <c r="AF244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -8940,7 +8874,7 @@
       <c r="AE245" s="3"/>
       <c r="AF245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -8974,7 +8908,7 @@
       <c r="AE246" s="3"/>
       <c r="AF246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9008,7 +8942,7 @@
       <c r="AE247" s="3"/>
       <c r="AF247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9042,7 +8976,7 @@
       <c r="AE248" s="3"/>
       <c r="AF248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9076,7 +9010,7 @@
       <c r="AE249" s="3"/>
       <c r="AF249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9110,7 +9044,7 @@
       <c r="AE250" s="3"/>
       <c r="AF250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -9144,7 +9078,7 @@
       <c r="AE251" s="3"/>
       <c r="AF251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -9178,7 +9112,7 @@
       <c r="AE252" s="3"/>
       <c r="AF252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9212,7 +9146,7 @@
       <c r="AE253" s="3"/>
       <c r="AF253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -9246,7 +9180,7 @@
       <c r="AE254" s="3"/>
       <c r="AF254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -9280,7 +9214,7 @@
       <c r="AE255" s="3"/>
       <c r="AF255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -9314,7 +9248,7 @@
       <c r="AE256" s="3"/>
       <c r="AF256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -9348,7 +9282,7 @@
       <c r="AE257" s="3"/>
       <c r="AF257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -9382,7 +9316,7 @@
       <c r="AE258" s="3"/>
       <c r="AF258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -9416,7 +9350,7 @@
       <c r="AE259" s="3"/>
       <c r="AF259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -9450,7 +9384,7 @@
       <c r="AE260" s="3"/>
       <c r="AF260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9484,7 +9418,7 @@
       <c r="AE261" s="3"/>
       <c r="AF261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -9518,7 +9452,7 @@
       <c r="AE262" s="3"/>
       <c r="AF262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -9552,7 +9486,7 @@
       <c r="AE263" s="3"/>
       <c r="AF263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -9586,7 +9520,7 @@
       <c r="AE264" s="3"/>
       <c r="AF264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -9620,7 +9554,7 @@
       <c r="AE265" s="3"/>
       <c r="AF265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -9654,7 +9588,7 @@
       <c r="AE266" s="3"/>
       <c r="AF266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -9688,7 +9622,7 @@
       <c r="AE267" s="3"/>
       <c r="AF267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -9722,7 +9656,7 @@
       <c r="AE268" s="3"/>
       <c r="AF268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -9756,7 +9690,7 @@
       <c r="AE269" s="3"/>
       <c r="AF269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -9790,7 +9724,7 @@
       <c r="AE270" s="3"/>
       <c r="AF270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -9824,7 +9758,7 @@
       <c r="AE271" s="3"/>
       <c r="AF271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -9858,7 +9792,7 @@
       <c r="AE272" s="3"/>
       <c r="AF272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -9892,7 +9826,7 @@
       <c r="AE273" s="3"/>
       <c r="AF273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -9926,7 +9860,7 @@
       <c r="AE274" s="3"/>
       <c r="AF274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -9960,7 +9894,7 @@
       <c r="AE275" s="3"/>
       <c r="AF275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -9994,7 +9928,7 @@
       <c r="AE276" s="3"/>
       <c r="AF276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -10028,7 +9962,7 @@
       <c r="AE277" s="3"/>
       <c r="AF277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -10062,7 +9996,7 @@
       <c r="AE278" s="3"/>
       <c r="AF278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -10096,7 +10030,7 @@
       <c r="AE279" s="3"/>
       <c r="AF279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -10130,7 +10064,7 @@
       <c r="AE280" s="3"/>
       <c r="AF280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -10164,7 +10098,7 @@
       <c r="AE281" s="3"/>
       <c r="AF281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -10198,7 +10132,7 @@
       <c r="AE282" s="3"/>
       <c r="AF282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -10232,7 +10166,7 @@
       <c r="AE283" s="3"/>
       <c r="AF283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -10266,7 +10200,7 @@
       <c r="AE284" s="3"/>
       <c r="AF284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -10300,7 +10234,7 @@
       <c r="AE285" s="3"/>
       <c r="AF285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -10334,7 +10268,7 @@
       <c r="AE286" s="3"/>
       <c r="AF286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -10368,7 +10302,7 @@
       <c r="AE287" s="3"/>
       <c r="AF287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -10402,7 +10336,7 @@
       <c r="AE288" s="3"/>
       <c r="AF288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -10436,7 +10370,7 @@
       <c r="AE289" s="3"/>
       <c r="AF289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -10470,7 +10404,7 @@
       <c r="AE290" s="3"/>
       <c r="AF290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -10504,7 +10438,7 @@
       <c r="AE291" s="3"/>
       <c r="AF291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -10538,7 +10472,7 @@
       <c r="AE292" s="3"/>
       <c r="AF292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -10572,7 +10506,7 @@
       <c r="AE293" s="3"/>
       <c r="AF293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -10606,7 +10540,7 @@
       <c r="AE294" s="3"/>
       <c r="AF294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -10640,7 +10574,7 @@
       <c r="AE295" s="3"/>
       <c r="AF295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -10674,7 +10608,7 @@
       <c r="AE296" s="3"/>
       <c r="AF296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -10708,7 +10642,7 @@
       <c r="AE297" s="3"/>
       <c r="AF297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -10742,7 +10676,7 @@
       <c r="AE298" s="3"/>
       <c r="AF298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -10776,7 +10710,7 @@
       <c r="AE299" s="3"/>
       <c r="AF299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -10810,7 +10744,7 @@
       <c r="AE300" s="3"/>
       <c r="AF300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -10844,7 +10778,7 @@
       <c r="AE301" s="3"/>
       <c r="AF301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -10878,7 +10812,7 @@
       <c r="AE302" s="3"/>
       <c r="AF302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -10912,7 +10846,7 @@
       <c r="AE303" s="3"/>
       <c r="AF303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -10946,7 +10880,7 @@
       <c r="AE304" s="3"/>
       <c r="AF304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -10980,7 +10914,7 @@
       <c r="AE305" s="3"/>
       <c r="AF305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -11014,7 +10948,7 @@
       <c r="AE306" s="3"/>
       <c r="AF306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -11048,7 +10982,7 @@
       <c r="AE307" s="3"/>
       <c r="AF307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -11082,7 +11016,7 @@
       <c r="AE308" s="3"/>
       <c r="AF308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -11116,7 +11050,7 @@
       <c r="AE309" s="3"/>
       <c r="AF309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -11150,7 +11084,7 @@
       <c r="AE310" s="3"/>
       <c r="AF310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -11184,7 +11118,7 @@
       <c r="AE311" s="3"/>
       <c r="AF311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -11218,7 +11152,7 @@
       <c r="AE312" s="3"/>
       <c r="AF312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -11252,7 +11186,7 @@
       <c r="AE313" s="3"/>
       <c r="AF313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -11286,7 +11220,7 @@
       <c r="AE314" s="3"/>
       <c r="AF314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -11320,7 +11254,7 @@
       <c r="AE315" s="3"/>
       <c r="AF315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -11354,7 +11288,7 @@
       <c r="AE316" s="3"/>
       <c r="AF316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -11388,7 +11322,7 @@
       <c r="AE317" s="3"/>
       <c r="AF317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -11422,7 +11356,7 @@
       <c r="AE318" s="3"/>
       <c r="AF318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -11456,7 +11390,7 @@
       <c r="AE319" s="3"/>
       <c r="AF319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -11490,7 +11424,7 @@
       <c r="AE320" s="3"/>
       <c r="AF320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -11524,7 +11458,7 @@
       <c r="AE321" s="3"/>
       <c r="AF321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -11558,7 +11492,7 @@
       <c r="AE322" s="3"/>
       <c r="AF322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -11592,7 +11526,7 @@
       <c r="AE323" s="3"/>
       <c r="AF323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -11626,7 +11560,7 @@
       <c r="AE324" s="3"/>
       <c r="AF324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -11660,7 +11594,7 @@
       <c r="AE325" s="3"/>
       <c r="AF325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -11694,7 +11628,7 @@
       <c r="AE326" s="3"/>
       <c r="AF326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -11728,7 +11662,7 @@
       <c r="AE327" s="3"/>
       <c r="AF327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -11762,7 +11696,7 @@
       <c r="AE328" s="3"/>
       <c r="AF328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -11796,7 +11730,7 @@
       <c r="AE329" s="3"/>
       <c r="AF329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -11830,7 +11764,7 @@
       <c r="AE330" s="3"/>
       <c r="AF330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -11864,7 +11798,7 @@
       <c r="AE331" s="3"/>
       <c r="AF331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -11898,7 +11832,7 @@
       <c r="AE332" s="3"/>
       <c r="AF332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -11932,7 +11866,7 @@
       <c r="AE333" s="3"/>
       <c r="AF333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -11966,7 +11900,7 @@
       <c r="AE334" s="3"/>
       <c r="AF334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -12000,7 +11934,7 @@
       <c r="AE335" s="3"/>
       <c r="AF335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -12034,7 +11968,7 @@
       <c r="AE336" s="3"/>
       <c r="AF336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -12068,7 +12002,7 @@
       <c r="AE337" s="3"/>
       <c r="AF337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -12102,7 +12036,7 @@
       <c r="AE338" s="3"/>
       <c r="AF338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -12136,7 +12070,7 @@
       <c r="AE339" s="3"/>
       <c r="AF339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -12170,7 +12104,7 @@
       <c r="AE340" s="3"/>
       <c r="AF340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -12204,7 +12138,7 @@
       <c r="AE341" s="3"/>
       <c r="AF341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -12238,7 +12172,7 @@
       <c r="AE342" s="3"/>
       <c r="AF342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -12272,7 +12206,7 @@
       <c r="AE343" s="3"/>
       <c r="AF343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -12306,7 +12240,7 @@
       <c r="AE344" s="3"/>
       <c r="AF344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -12340,7 +12274,7 @@
       <c r="AE345" s="3"/>
       <c r="AF345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -12374,7 +12308,7 @@
       <c r="AE346" s="3"/>
       <c r="AF346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -12408,7 +12342,7 @@
       <c r="AE347" s="3"/>
       <c r="AF347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -12442,7 +12376,7 @@
       <c r="AE348" s="3"/>
       <c r="AF348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -12476,7 +12410,7 @@
       <c r="AE349" s="3"/>
       <c r="AF349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -12510,7 +12444,7 @@
       <c r="AE350" s="3"/>
       <c r="AF350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -12544,7 +12478,7 @@
       <c r="AE351" s="3"/>
       <c r="AF351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -12578,7 +12512,7 @@
       <c r="AE352" s="3"/>
       <c r="AF352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -12612,7 +12546,7 @@
       <c r="AE353" s="3"/>
       <c r="AF353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -12646,7 +12580,7 @@
       <c r="AE354" s="3"/>
       <c r="AF354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -12680,7 +12614,7 @@
       <c r="AE355" s="3"/>
       <c r="AF355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -12714,7 +12648,7 @@
       <c r="AE356" s="3"/>
       <c r="AF356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -12748,7 +12682,7 @@
       <c r="AE357" s="3"/>
       <c r="AF357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -12782,7 +12716,7 @@
       <c r="AE358" s="3"/>
       <c r="AF358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -12816,7 +12750,7 @@
       <c r="AE359" s="3"/>
       <c r="AF359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -12850,7 +12784,7 @@
       <c r="AE360" s="3"/>
       <c r="AF360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -12884,7 +12818,7 @@
       <c r="AE361" s="3"/>
       <c r="AF361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -12918,7 +12852,7 @@
       <c r="AE362" s="3"/>
       <c r="AF362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -12952,7 +12886,7 @@
       <c r="AE363" s="3"/>
       <c r="AF363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -12986,7 +12920,7 @@
       <c r="AE364" s="3"/>
       <c r="AF364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -13020,7 +12954,7 @@
       <c r="AE365" s="3"/>
       <c r="AF365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -13054,7 +12988,7 @@
       <c r="AE366" s="3"/>
       <c r="AF366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -13088,7 +13022,7 @@
       <c r="AE367" s="3"/>
       <c r="AF367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -13122,7 +13056,7 @@
       <c r="AE368" s="3"/>
       <c r="AF368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -13156,7 +13090,7 @@
       <c r="AE369" s="3"/>
       <c r="AF369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -13190,7 +13124,7 @@
       <c r="AE370" s="3"/>
       <c r="AF370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -13224,7 +13158,7 @@
       <c r="AE371" s="3"/>
       <c r="AF371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -13258,7 +13192,7 @@
       <c r="AE372" s="3"/>
       <c r="AF372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -13292,7 +13226,7 @@
       <c r="AE373" s="3"/>
       <c r="AF373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -13326,7 +13260,7 @@
       <c r="AE374" s="3"/>
       <c r="AF374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -13360,7 +13294,7 @@
       <c r="AE375" s="3"/>
       <c r="AF375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -13394,7 +13328,7 @@
       <c r="AE376" s="3"/>
       <c r="AF376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -13428,7 +13362,7 @@
       <c r="AE377" s="3"/>
       <c r="AF377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -13462,7 +13396,7 @@
       <c r="AE378" s="3"/>
       <c r="AF378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -13496,7 +13430,7 @@
       <c r="AE379" s="3"/>
       <c r="AF379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -13530,7 +13464,7 @@
       <c r="AE380" s="3"/>
       <c r="AF380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -13564,7 +13498,7 @@
       <c r="AE381" s="3"/>
       <c r="AF381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -13598,7 +13532,7 @@
       <c r="AE382" s="3"/>
       <c r="AF382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -13632,7 +13566,7 @@
       <c r="AE383" s="3"/>
       <c r="AF383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -13666,7 +13600,7 @@
       <c r="AE384" s="3"/>
       <c r="AF384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -13700,7 +13634,7 @@
       <c r="AE385" s="3"/>
       <c r="AF385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -13734,7 +13668,7 @@
       <c r="AE386" s="3"/>
       <c r="AF386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -13768,7 +13702,7 @@
       <c r="AE387" s="3"/>
       <c r="AF387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -13802,7 +13736,7 @@
       <c r="AE388" s="3"/>
       <c r="AF388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -13836,7 +13770,7 @@
       <c r="AE389" s="3"/>
       <c r="AF389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -13870,7 +13804,7 @@
       <c r="AE390" s="3"/>
       <c r="AF390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -13904,7 +13838,7 @@
       <c r="AE391" s="3"/>
       <c r="AF391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -13938,7 +13872,7 @@
       <c r="AE392" s="3"/>
       <c r="AF392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -13972,7 +13906,7 @@
       <c r="AE393" s="3"/>
       <c r="AF393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -14006,7 +13940,7 @@
       <c r="AE394" s="3"/>
       <c r="AF394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -14040,7 +13974,7 @@
       <c r="AE395" s="3"/>
       <c r="AF395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -14074,7 +14008,7 @@
       <c r="AE396" s="3"/>
       <c r="AF396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -14108,7 +14042,7 @@
       <c r="AE397" s="3"/>
       <c r="AF397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -14142,7 +14076,7 @@
       <c r="AE398" s="3"/>
       <c r="AF398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -14176,7 +14110,7 @@
       <c r="AE399" s="3"/>
       <c r="AF399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -14210,7 +14144,7 @@
       <c r="AE400" s="3"/>
       <c r="AF400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -14244,7 +14178,7 @@
       <c r="AE401" s="3"/>
       <c r="AF401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -14278,7 +14212,7 @@
       <c r="AE402" s="3"/>
       <c r="AF402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -14312,7 +14246,7 @@
       <c r="AE403" s="3"/>
       <c r="AF403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -14346,7 +14280,7 @@
       <c r="AE404" s="3"/>
       <c r="AF404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -14380,7 +14314,7 @@
       <c r="AE405" s="3"/>
       <c r="AF405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -14414,7 +14348,7 @@
       <c r="AE406" s="3"/>
       <c r="AF406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -14448,7 +14382,7 @@
       <c r="AE407" s="3"/>
       <c r="AF407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -14482,7 +14416,7 @@
       <c r="AE408" s="3"/>
       <c r="AF408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -14516,7 +14450,7 @@
       <c r="AE409" s="3"/>
       <c r="AF409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -14550,7 +14484,7 @@
       <c r="AE410" s="3"/>
       <c r="AF410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -14584,7 +14518,7 @@
       <c r="AE411" s="3"/>
       <c r="AF411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -14618,7 +14552,7 @@
       <c r="AE412" s="3"/>
       <c r="AF412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -14652,7 +14586,7 @@
       <c r="AE413" s="3"/>
       <c r="AF413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -14686,7 +14620,7 @@
       <c r="AE414" s="3"/>
       <c r="AF414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -14720,7 +14654,7 @@
       <c r="AE415" s="3"/>
       <c r="AF415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -14754,7 +14688,7 @@
       <c r="AE416" s="3"/>
       <c r="AF416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -14788,7 +14722,7 @@
       <c r="AE417" s="3"/>
       <c r="AF417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -14822,7 +14756,7 @@
       <c r="AE418" s="3"/>
       <c r="AF418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -14856,7 +14790,7 @@
       <c r="AE419" s="3"/>
       <c r="AF419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -14890,7 +14824,7 @@
       <c r="AE420" s="3"/>
       <c r="AF420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -14924,7 +14858,7 @@
       <c r="AE421" s="3"/>
       <c r="AF421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -14958,7 +14892,7 @@
       <c r="AE422" s="3"/>
       <c r="AF422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -14992,7 +14926,7 @@
       <c r="AE423" s="3"/>
       <c r="AF423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -15026,7 +14960,7 @@
       <c r="AE424" s="3"/>
       <c r="AF424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -15060,7 +14994,7 @@
       <c r="AE425" s="3"/>
       <c r="AF425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -15094,7 +15028,7 @@
       <c r="AE426" s="3"/>
       <c r="AF426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -15128,7 +15062,7 @@
       <c r="AE427" s="3"/>
       <c r="AF427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -15162,7 +15096,7 @@
       <c r="AE428" s="3"/>
       <c r="AF428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -15196,7 +15130,7 @@
       <c r="AE429" s="3"/>
       <c r="AF429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -15230,7 +15164,7 @@
       <c r="AE430" s="3"/>
       <c r="AF430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -15264,7 +15198,7 @@
       <c r="AE431" s="3"/>
       <c r="AF431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -15298,7 +15232,7 @@
       <c r="AE432" s="3"/>
       <c r="AF432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -15332,7 +15266,7 @@
       <c r="AE433" s="3"/>
       <c r="AF433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -15366,7 +15300,7 @@
       <c r="AE434" s="3"/>
       <c r="AF434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -15400,7 +15334,7 @@
       <c r="AE435" s="3"/>
       <c r="AF435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -15434,7 +15368,7 @@
       <c r="AE436" s="3"/>
       <c r="AF436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -15468,7 +15402,7 @@
       <c r="AE437" s="3"/>
       <c r="AF437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -15502,7 +15436,7 @@
       <c r="AE438" s="3"/>
       <c r="AF438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -15536,7 +15470,7 @@
       <c r="AE439" s="3"/>
       <c r="AF439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -15570,7 +15504,7 @@
       <c r="AE440" s="3"/>
       <c r="AF440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -15604,7 +15538,7 @@
       <c r="AE441" s="3"/>
       <c r="AF441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -15638,7 +15572,7 @@
       <c r="AE442" s="3"/>
       <c r="AF442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -15672,7 +15606,7 @@
       <c r="AE443" s="3"/>
       <c r="AF443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -15706,7 +15640,7 @@
       <c r="AE444" s="3"/>
       <c r="AF444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -15740,7 +15674,7 @@
       <c r="AE445" s="3"/>
       <c r="AF445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -15774,7 +15708,7 @@
       <c r="AE446" s="3"/>
       <c r="AF446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -15808,7 +15742,7 @@
       <c r="AE447" s="3"/>
       <c r="AF447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -15842,7 +15776,7 @@
       <c r="AE448" s="3"/>
       <c r="AF448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -15876,7 +15810,7 @@
       <c r="AE449" s="3"/>
       <c r="AF449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -15910,7 +15844,7 @@
       <c r="AE450" s="3"/>
       <c r="AF450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -15944,7 +15878,7 @@
       <c r="AE451" s="3"/>
       <c r="AF451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -15978,7 +15912,7 @@
       <c r="AE452" s="3"/>
       <c r="AF452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -16012,7 +15946,7 @@
       <c r="AE453" s="3"/>
       <c r="AF453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -16046,7 +15980,7 @@
       <c r="AE454" s="3"/>
       <c r="AF454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -16080,7 +16014,7 @@
       <c r="AE455" s="3"/>
       <c r="AF455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -16114,7 +16048,7 @@
       <c r="AE456" s="3"/>
       <c r="AF456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -16148,7 +16082,7 @@
       <c r="AE457" s="3"/>
       <c r="AF457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -16182,7 +16116,7 @@
       <c r="AE458" s="3"/>
       <c r="AF458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -16216,7 +16150,7 @@
       <c r="AE459" s="3"/>
       <c r="AF459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -16250,7 +16184,7 @@
       <c r="AE460" s="3"/>
       <c r="AF460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -16284,7 +16218,7 @@
       <c r="AE461" s="3"/>
       <c r="AF461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -16318,7 +16252,7 @@
       <c r="AE462" s="3"/>
       <c r="AF462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -16352,7 +16286,7 @@
       <c r="AE463" s="3"/>
       <c r="AF463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -16386,7 +16320,7 @@
       <c r="AE464" s="3"/>
       <c r="AF464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -16420,7 +16354,7 @@
       <c r="AE465" s="3"/>
       <c r="AF465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -16454,7 +16388,7 @@
       <c r="AE466" s="3"/>
       <c r="AF466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -16488,7 +16422,7 @@
       <c r="AE467" s="3"/>
       <c r="AF467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -16522,7 +16456,7 @@
       <c r="AE468" s="3"/>
       <c r="AF468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -16556,7 +16490,7 @@
       <c r="AE469" s="3"/>
       <c r="AF469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -16590,7 +16524,7 @@
       <c r="AE470" s="3"/>
       <c r="AF470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -16624,7 +16558,7 @@
       <c r="AE471" s="3"/>
       <c r="AF471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -16658,7 +16592,7 @@
       <c r="AE472" s="3"/>
       <c r="AF472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -16692,7 +16626,7 @@
       <c r="AE473" s="3"/>
       <c r="AF473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -16726,7 +16660,7 @@
       <c r="AE474" s="3"/>
       <c r="AF474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -16760,7 +16694,7 @@
       <c r="AE475" s="3"/>
       <c r="AF475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -16794,7 +16728,7 @@
       <c r="AE476" s="3"/>
       <c r="AF476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -16828,7 +16762,7 @@
       <c r="AE477" s="3"/>
       <c r="AF477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -16862,7 +16796,7 @@
       <c r="AE478" s="3"/>
       <c r="AF478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -16896,7 +16830,7 @@
       <c r="AE479" s="3"/>
       <c r="AF479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -16930,7 +16864,7 @@
       <c r="AE480" s="3"/>
       <c r="AF480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -16964,7 +16898,7 @@
       <c r="AE481" s="3"/>
       <c r="AF481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -16998,7 +16932,7 @@
       <c r="AE482" s="3"/>
       <c r="AF482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -17032,7 +16966,7 @@
       <c r="AE483" s="3"/>
       <c r="AF483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -17066,7 +17000,7 @@
       <c r="AE484" s="3"/>
       <c r="AF484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -17100,7 +17034,7 @@
       <c r="AE485" s="3"/>
       <c r="AF485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -17134,7 +17068,7 @@
       <c r="AE486" s="3"/>
       <c r="AF486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -17168,7 +17102,7 @@
       <c r="AE487" s="3"/>
       <c r="AF487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -17202,7 +17136,7 @@
       <c r="AE488" s="3"/>
       <c r="AF488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -17236,7 +17170,7 @@
       <c r="AE489" s="3"/>
       <c r="AF489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -17270,7 +17204,7 @@
       <c r="AE490" s="3"/>
       <c r="AF490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -17304,7 +17238,7 @@
       <c r="AE491" s="3"/>
       <c r="AF491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -17338,7 +17272,7 @@
       <c r="AE492" s="3"/>
       <c r="AF492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -17372,7 +17306,7 @@
       <c r="AE493" s="3"/>
       <c r="AF493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -17406,7 +17340,7 @@
       <c r="AE494" s="3"/>
       <c r="AF494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -17440,7 +17374,7 @@
       <c r="AE495" s="3"/>
       <c r="AF495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -17474,7 +17408,7 @@
       <c r="AE496" s="3"/>
       <c r="AF496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -17508,7 +17442,7 @@
       <c r="AE497" s="3"/>
       <c r="AF497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -17542,7 +17476,7 @@
       <c r="AE498" s="3"/>
       <c r="AF498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -17576,7 +17510,7 @@
       <c r="AE499" s="3"/>
       <c r="AF499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -17610,7 +17544,7 @@
       <c r="AE500" s="3"/>
       <c r="AF500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -17644,7 +17578,7 @@
       <c r="AE501" s="3"/>
       <c r="AF501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -17678,7 +17612,7 @@
       <c r="AE502" s="3"/>
       <c r="AF502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -17712,7 +17646,7 @@
       <c r="AE503" s="3"/>
       <c r="AF503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -17746,7 +17680,7 @@
       <c r="AE504" s="3"/>
       <c r="AF504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -17780,7 +17714,7 @@
       <c r="AE505" s="3"/>
       <c r="AF505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -17814,7 +17748,7 @@
       <c r="AE506" s="3"/>
       <c r="AF506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -17848,7 +17782,7 @@
       <c r="AE507" s="3"/>
       <c r="AF507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -17882,7 +17816,7 @@
       <c r="AE508" s="3"/>
       <c r="AF508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -17916,7 +17850,7 @@
       <c r="AE509" s="3"/>
       <c r="AF509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -17950,7 +17884,7 @@
       <c r="AE510" s="3"/>
       <c r="AF510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -17984,7 +17918,7 @@
       <c r="AE511" s="3"/>
       <c r="AF511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -18018,7 +17952,7 @@
       <c r="AE512" s="3"/>
       <c r="AF512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -18052,7 +17986,7 @@
       <c r="AE513" s="3"/>
       <c r="AF513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -18086,7 +18020,7 @@
       <c r="AE514" s="3"/>
       <c r="AF514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -18120,7 +18054,7 @@
       <c r="AE515" s="3"/>
       <c r="AF515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -18154,7 +18088,7 @@
       <c r="AE516" s="3"/>
       <c r="AF516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -18188,7 +18122,7 @@
       <c r="AE517" s="3"/>
       <c r="AF517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -18222,7 +18156,7 @@
       <c r="AE518" s="3"/>
       <c r="AF518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -18256,7 +18190,7 @@
       <c r="AE519" s="3"/>
       <c r="AF519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -18290,7 +18224,7 @@
       <c r="AE520" s="3"/>
       <c r="AF520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -18324,7 +18258,7 @@
       <c r="AE521" s="3"/>
       <c r="AF521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -18358,7 +18292,7 @@
       <c r="AE522" s="3"/>
       <c r="AF522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -18392,7 +18326,7 @@
       <c r="AE523" s="3"/>
       <c r="AF523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -18426,7 +18360,7 @@
       <c r="AE524" s="3"/>
       <c r="AF524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -18460,7 +18394,7 @@
       <c r="AE525" s="3"/>
       <c r="AF525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -18494,7 +18428,7 @@
       <c r="AE526" s="3"/>
       <c r="AF526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -18528,7 +18462,7 @@
       <c r="AE527" s="3"/>
       <c r="AF527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -18562,7 +18496,7 @@
       <c r="AE528" s="3"/>
       <c r="AF528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -18596,7 +18530,7 @@
       <c r="AE529" s="3"/>
       <c r="AF529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -18630,7 +18564,7 @@
       <c r="AE530" s="3"/>
       <c r="AF530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -18664,7 +18598,7 @@
       <c r="AE531" s="3"/>
       <c r="AF531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -18698,7 +18632,7 @@
       <c r="AE532" s="3"/>
       <c r="AF532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -18732,7 +18666,7 @@
       <c r="AE533" s="3"/>
       <c r="AF533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -18766,7 +18700,7 @@
       <c r="AE534" s="3"/>
       <c r="AF534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -18800,7 +18734,7 @@
       <c r="AE535" s="3"/>
       <c r="AF535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -18834,7 +18768,7 @@
       <c r="AE536" s="3"/>
       <c r="AF536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -18868,7 +18802,7 @@
       <c r="AE537" s="3"/>
       <c r="AF537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -18902,7 +18836,7 @@
       <c r="AE538" s="3"/>
       <c r="AF538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -18936,7 +18870,7 @@
       <c r="AE539" s="3"/>
       <c r="AF539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -18970,7 +18904,7 @@
       <c r="AE540" s="3"/>
       <c r="AF540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -19004,7 +18938,7 @@
       <c r="AE541" s="3"/>
       <c r="AF541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -19038,7 +18972,7 @@
       <c r="AE542" s="3"/>
       <c r="AF542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -19072,7 +19006,7 @@
       <c r="AE543" s="3"/>
       <c r="AF543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -19106,7 +19040,7 @@
       <c r="AE544" s="3"/>
       <c r="AF544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -19140,7 +19074,7 @@
       <c r="AE545" s="3"/>
       <c r="AF545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -19174,7 +19108,7 @@
       <c r="AE546" s="3"/>
       <c r="AF546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -19208,7 +19142,7 @@
       <c r="AE547" s="3"/>
       <c r="AF547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -19242,7 +19176,7 @@
       <c r="AE548" s="3"/>
       <c r="AF548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -19276,7 +19210,7 @@
       <c r="AE549" s="3"/>
       <c r="AF549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -19310,7 +19244,7 @@
       <c r="AE550" s="3"/>
       <c r="AF550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -19344,7 +19278,7 @@
       <c r="AE551" s="3"/>
       <c r="AF551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -19378,7 +19312,7 @@
       <c r="AE552" s="3"/>
       <c r="AF552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -19412,7 +19346,7 @@
       <c r="AE553" s="3"/>
       <c r="AF553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -19446,7 +19380,7 @@
       <c r="AE554" s="3"/>
       <c r="AF554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -19480,7 +19414,7 @@
       <c r="AE555" s="3"/>
       <c r="AF555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -19514,7 +19448,7 @@
       <c r="AE556" s="3"/>
       <c r="AF556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -19548,7 +19482,7 @@
       <c r="AE557" s="3"/>
       <c r="AF557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -19582,7 +19516,7 @@
       <c r="AE558" s="3"/>
       <c r="AF558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -19616,7 +19550,7 @@
       <c r="AE559" s="3"/>
       <c r="AF559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -19650,7 +19584,7 @@
       <c r="AE560" s="3"/>
       <c r="AF560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -19684,7 +19618,7 @@
       <c r="AE561" s="3"/>
       <c r="AF561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -19718,7 +19652,7 @@
       <c r="AE562" s="3"/>
       <c r="AF562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -19752,7 +19686,7 @@
       <c r="AE563" s="3"/>
       <c r="AF563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -19786,7 +19720,7 @@
       <c r="AE564" s="3"/>
       <c r="AF564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -19820,7 +19754,7 @@
       <c r="AE565" s="3"/>
       <c r="AF565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -19854,7 +19788,7 @@
       <c r="AE566" s="3"/>
       <c r="AF566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -19888,7 +19822,7 @@
       <c r="AE567" s="3"/>
       <c r="AF567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -19922,7 +19856,7 @@
       <c r="AE568" s="3"/>
       <c r="AF568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -19956,7 +19890,7 @@
       <c r="AE569" s="3"/>
       <c r="AF569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -19990,7 +19924,7 @@
       <c r="AE570" s="3"/>
       <c r="AF570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -20024,7 +19958,7 @@
       <c r="AE571" s="3"/>
       <c r="AF571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -20058,7 +19992,7 @@
       <c r="AE572" s="3"/>
       <c r="AF572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -20092,7 +20026,7 @@
       <c r="AE573" s="3"/>
       <c r="AF573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -20126,7 +20060,7 @@
       <c r="AE574" s="3"/>
       <c r="AF574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -20160,7 +20094,7 @@
       <c r="AE575" s="3"/>
       <c r="AF575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -20194,7 +20128,7 @@
       <c r="AE576" s="3"/>
       <c r="AF576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -20228,7 +20162,7 @@
       <c r="AE577" s="3"/>
       <c r="AF577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -20262,7 +20196,7 @@
       <c r="AE578" s="3"/>
       <c r="AF578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -20296,7 +20230,7 @@
       <c r="AE579" s="3"/>
       <c r="AF579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -20330,7 +20264,7 @@
       <c r="AE580" s="3"/>
       <c r="AF580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -20364,7 +20298,7 @@
       <c r="AE581" s="3"/>
       <c r="AF581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -20398,7 +20332,7 @@
       <c r="AE582" s="3"/>
       <c r="AF582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -20432,7 +20366,7 @@
       <c r="AE583" s="3"/>
       <c r="AF583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -20466,7 +20400,7 @@
       <c r="AE584" s="3"/>
       <c r="AF584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -20500,7 +20434,7 @@
       <c r="AE585" s="3"/>
       <c r="AF585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -20534,7 +20468,7 @@
       <c r="AE586" s="3"/>
       <c r="AF586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -20568,7 +20502,7 @@
       <c r="AE587" s="3"/>
       <c r="AF587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -20602,7 +20536,7 @@
       <c r="AE588" s="3"/>
       <c r="AF588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -20636,7 +20570,7 @@
       <c r="AE589" s="3"/>
       <c r="AF589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -20670,7 +20604,7 @@
       <c r="AE590" s="3"/>
       <c r="AF590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -20704,7 +20638,7 @@
       <c r="AE591" s="3"/>
       <c r="AF591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -20738,7 +20672,7 @@
       <c r="AE592" s="3"/>
       <c r="AF592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -20772,7 +20706,7 @@
       <c r="AE593" s="3"/>
       <c r="AF593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -20806,7 +20740,7 @@
       <c r="AE594" s="3"/>
       <c r="AF594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -20840,7 +20774,7 @@
       <c r="AE595" s="3"/>
       <c r="AF595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -20874,7 +20808,7 @@
       <c r="AE596" s="3"/>
       <c r="AF596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -20908,7 +20842,7 @@
       <c r="AE597" s="3"/>
       <c r="AF597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -20942,7 +20876,7 @@
       <c r="AE598" s="3"/>
       <c r="AF598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -20976,7 +20910,7 @@
       <c r="AE599" s="3"/>
       <c r="AF599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -21010,7 +20944,7 @@
       <c r="AE600" s="3"/>
       <c r="AF600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -21044,7 +20978,7 @@
       <c r="AE601" s="3"/>
       <c r="AF601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -21078,7 +21012,7 @@
       <c r="AE602" s="3"/>
       <c r="AF602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -21112,7 +21046,7 @@
       <c r="AE603" s="3"/>
       <c r="AF603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -21146,7 +21080,7 @@
       <c r="AE604" s="3"/>
       <c r="AF604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -21180,7 +21114,7 @@
       <c r="AE605" s="3"/>
       <c r="AF605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -21214,7 +21148,7 @@
       <c r="AE606" s="3"/>
       <c r="AF606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -21248,7 +21182,7 @@
       <c r="AE607" s="3"/>
       <c r="AF607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -21282,7 +21216,7 @@
       <c r="AE608" s="3"/>
       <c r="AF608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -21316,7 +21250,7 @@
       <c r="AE609" s="3"/>
       <c r="AF609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -21350,7 +21284,7 @@
       <c r="AE610" s="3"/>
       <c r="AF610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -21384,7 +21318,7 @@
       <c r="AE611" s="3"/>
       <c r="AF611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -21418,7 +21352,7 @@
       <c r="AE612" s="3"/>
       <c r="AF612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -21452,7 +21386,7 @@
       <c r="AE613" s="3"/>
       <c r="AF613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -21486,7 +21420,7 @@
       <c r="AE614" s="3"/>
       <c r="AF614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -21520,7 +21454,7 @@
       <c r="AE615" s="3"/>
       <c r="AF615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -21554,7 +21488,7 @@
       <c r="AE616" s="3"/>
       <c r="AF616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -21588,7 +21522,7 @@
       <c r="AE617" s="3"/>
       <c r="AF617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -21622,7 +21556,7 @@
       <c r="AE618" s="3"/>
       <c r="AF618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -21656,7 +21590,7 @@
       <c r="AE619" s="3"/>
       <c r="AF619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -21690,7 +21624,7 @@
       <c r="AE620" s="3"/>
       <c r="AF620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -21724,7 +21658,7 @@
       <c r="AE621" s="3"/>
       <c r="AF621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -21758,7 +21692,7 @@
       <c r="AE622" s="3"/>
       <c r="AF622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -21792,7 +21726,7 @@
       <c r="AE623" s="3"/>
       <c r="AF623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -21826,7 +21760,7 @@
       <c r="AE624" s="3"/>
       <c r="AF624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -21860,7 +21794,7 @@
       <c r="AE625" s="3"/>
       <c r="AF625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -21894,7 +21828,7 @@
       <c r="AE626" s="3"/>
       <c r="AF626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -21928,7 +21862,7 @@
       <c r="AE627" s="3"/>
       <c r="AF627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -21962,7 +21896,7 @@
       <c r="AE628" s="3"/>
       <c r="AF628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -21996,7 +21930,7 @@
       <c r="AE629" s="3"/>
       <c r="AF629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -22030,7 +21964,7 @@
       <c r="AE630" s="3"/>
       <c r="AF630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -22064,7 +21998,7 @@
       <c r="AE631" s="3"/>
       <c r="AF631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -22098,7 +22032,7 @@
       <c r="AE632" s="3"/>
       <c r="AF632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -22132,7 +22066,7 @@
       <c r="AE633" s="3"/>
       <c r="AF633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -22166,7 +22100,7 @@
       <c r="AE634" s="3"/>
       <c r="AF634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -22200,7 +22134,7 @@
       <c r="AE635" s="3"/>
       <c r="AF635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -22234,7 +22168,7 @@
       <c r="AE636" s="3"/>
       <c r="AF636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -22268,7 +22202,7 @@
       <c r="AE637" s="3"/>
       <c r="AF637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -22302,7 +22236,7 @@
       <c r="AE638" s="3"/>
       <c r="AF638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -22336,7 +22270,7 @@
       <c r="AE639" s="3"/>
       <c r="AF639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -22370,7 +22304,7 @@
       <c r="AE640" s="3"/>
       <c r="AF640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -22404,7 +22338,7 @@
       <c r="AE641" s="3"/>
       <c r="AF641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -22438,7 +22372,7 @@
       <c r="AE642" s="3"/>
       <c r="AF642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -22472,7 +22406,7 @@
       <c r="AE643" s="3"/>
       <c r="AF643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -22506,7 +22440,7 @@
       <c r="AE644" s="3"/>
       <c r="AF644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -22540,7 +22474,7 @@
       <c r="AE645" s="3"/>
       <c r="AF645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -22574,7 +22508,7 @@
       <c r="AE646" s="3"/>
       <c r="AF646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -22608,7 +22542,7 @@
       <c r="AE647" s="3"/>
       <c r="AF647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -22642,7 +22576,7 @@
       <c r="AE648" s="3"/>
       <c r="AF648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -22676,7 +22610,7 @@
       <c r="AE649" s="3"/>
       <c r="AF649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -22710,7 +22644,7 @@
       <c r="AE650" s="3"/>
       <c r="AF650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -22744,7 +22678,7 @@
       <c r="AE651" s="3"/>
       <c r="AF651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -22778,7 +22712,7 @@
       <c r="AE652" s="3"/>
       <c r="AF652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -22812,7 +22746,7 @@
       <c r="AE653" s="3"/>
       <c r="AF653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -22846,7 +22780,7 @@
       <c r="AE654" s="3"/>
       <c r="AF654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -22880,7 +22814,7 @@
       <c r="AE655" s="3"/>
       <c r="AF655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -22914,7 +22848,7 @@
       <c r="AE656" s="3"/>
       <c r="AF656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -22948,7 +22882,7 @@
       <c r="AE657" s="3"/>
       <c r="AF657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -22982,7 +22916,7 @@
       <c r="AE658" s="3"/>
       <c r="AF658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -23016,7 +22950,7 @@
       <c r="AE659" s="3"/>
       <c r="AF659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -23050,7 +22984,7 @@
       <c r="AE660" s="3"/>
       <c r="AF660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -23084,7 +23018,7 @@
       <c r="AE661" s="3"/>
       <c r="AF661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -23118,7 +23052,7 @@
       <c r="AE662" s="3"/>
       <c r="AF662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -23152,7 +23086,7 @@
       <c r="AE663" s="3"/>
       <c r="AF663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -23186,7 +23120,7 @@
       <c r="AE664" s="3"/>
       <c r="AF664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -23220,7 +23154,7 @@
       <c r="AE665" s="3"/>
       <c r="AF665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -23254,7 +23188,7 @@
       <c r="AE666" s="3"/>
       <c r="AF666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -23288,7 +23222,7 @@
       <c r="AE667" s="3"/>
       <c r="AF667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -23322,7 +23256,7 @@
       <c r="AE668" s="3"/>
       <c r="AF668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -23356,7 +23290,7 @@
       <c r="AE669" s="3"/>
       <c r="AF669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -23390,7 +23324,7 @@
       <c r="AE670" s="3"/>
       <c r="AF670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -23424,7 +23358,7 @@
       <c r="AE671" s="3"/>
       <c r="AF671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -23458,7 +23392,7 @@
       <c r="AE672" s="3"/>
       <c r="AF672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -23492,7 +23426,7 @@
       <c r="AE673" s="3"/>
       <c r="AF673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -23526,7 +23460,7 @@
       <c r="AE674" s="3"/>
       <c r="AF674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -23560,7 +23494,7 @@
       <c r="AE675" s="3"/>
       <c r="AF675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -23594,7 +23528,7 @@
       <c r="AE676" s="3"/>
       <c r="AF676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -23628,7 +23562,7 @@
       <c r="AE677" s="3"/>
       <c r="AF677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -23662,7 +23596,7 @@
       <c r="AE678" s="3"/>
       <c r="AF678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -23696,7 +23630,7 @@
       <c r="AE679" s="3"/>
       <c r="AF679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -23730,7 +23664,7 @@
       <c r="AE680" s="3"/>
       <c r="AF680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -23764,7 +23698,7 @@
       <c r="AE681" s="3"/>
       <c r="AF681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -23798,7 +23732,7 @@
       <c r="AE682" s="3"/>
       <c r="AF682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -23832,7 +23766,7 @@
       <c r="AE683" s="3"/>
       <c r="AF683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -23866,7 +23800,7 @@
       <c r="AE684" s="3"/>
       <c r="AF684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -23900,7 +23834,7 @@
       <c r="AE685" s="3"/>
       <c r="AF685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -23934,7 +23868,7 @@
       <c r="AE686" s="3"/>
       <c r="AF686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -23968,7 +23902,7 @@
       <c r="AE687" s="3"/>
       <c r="AF687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -24002,7 +23936,7 @@
       <c r="AE688" s="3"/>
       <c r="AF688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -24036,7 +23970,7 @@
       <c r="AE689" s="3"/>
       <c r="AF689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -24070,7 +24004,7 @@
       <c r="AE690" s="3"/>
       <c r="AF690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -24104,7 +24038,7 @@
       <c r="AE691" s="3"/>
       <c r="AF691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -24138,7 +24072,7 @@
       <c r="AE692" s="3"/>
       <c r="AF692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -24172,7 +24106,7 @@
       <c r="AE693" s="3"/>
       <c r="AF693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -24206,7 +24140,7 @@
       <c r="AE694" s="3"/>
       <c r="AF694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -24240,7 +24174,7 @@
       <c r="AE695" s="3"/>
       <c r="AF695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -24274,7 +24208,7 @@
       <c r="AE696" s="3"/>
       <c r="AF696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -24308,7 +24242,7 @@
       <c r="AE697" s="3"/>
       <c r="AF697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -24342,7 +24276,7 @@
       <c r="AE698" s="3"/>
       <c r="AF698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -24376,7 +24310,7 @@
       <c r="AE699" s="3"/>
       <c r="AF699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -24410,7 +24344,7 @@
       <c r="AE700" s="3"/>
       <c r="AF700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -24444,7 +24378,7 @@
       <c r="AE701" s="3"/>
       <c r="AF701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -24478,7 +24412,7 @@
       <c r="AE702" s="3"/>
       <c r="AF702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -24512,7 +24446,7 @@
       <c r="AE703" s="3"/>
       <c r="AF703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -24546,7 +24480,7 @@
       <c r="AE704" s="3"/>
       <c r="AF704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -24580,7 +24514,7 @@
       <c r="AE705" s="3"/>
       <c r="AF705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -24614,7 +24548,7 @@
       <c r="AE706" s="3"/>
       <c r="AF706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -24648,7 +24582,7 @@
       <c r="AE707" s="3"/>
       <c r="AF707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -24682,7 +24616,7 @@
       <c r="AE708" s="3"/>
       <c r="AF708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -24716,7 +24650,7 @@
       <c r="AE709" s="3"/>
       <c r="AF709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -24750,7 +24684,7 @@
       <c r="AE710" s="3"/>
       <c r="AF710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -24784,7 +24718,7 @@
       <c r="AE711" s="3"/>
       <c r="AF711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -24818,7 +24752,7 @@
       <c r="AE712" s="3"/>
       <c r="AF712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -24852,7 +24786,7 @@
       <c r="AE713" s="3"/>
       <c r="AF713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -24886,7 +24820,7 @@
       <c r="AE714" s="3"/>
       <c r="AF714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -24920,7 +24854,7 @@
       <c r="AE715" s="3"/>
       <c r="AF715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -24954,7 +24888,7 @@
       <c r="AE716" s="3"/>
       <c r="AF716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -24988,7 +24922,7 @@
       <c r="AE717" s="3"/>
       <c r="AF717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -25022,7 +24956,7 @@
       <c r="AE718" s="3"/>
       <c r="AF718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -25056,7 +24990,7 @@
       <c r="AE719" s="3"/>
       <c r="AF719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -25090,7 +25024,7 @@
       <c r="AE720" s="3"/>
       <c r="AF720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -25124,7 +25058,7 @@
       <c r="AE721" s="3"/>
       <c r="AF721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -25158,7 +25092,7 @@
       <c r="AE722" s="3"/>
       <c r="AF722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -25192,7 +25126,7 @@
       <c r="AE723" s="3"/>
       <c r="AF723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -25226,7 +25160,7 @@
       <c r="AE724" s="3"/>
       <c r="AF724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -25260,7 +25194,7 @@
       <c r="AE725" s="3"/>
       <c r="AF725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -25294,7 +25228,7 @@
       <c r="AE726" s="3"/>
       <c r="AF726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -25328,7 +25262,7 @@
       <c r="AE727" s="3"/>
       <c r="AF727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -25362,7 +25296,7 @@
       <c r="AE728" s="3"/>
       <c r="AF728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -25396,7 +25330,7 @@
       <c r="AE729" s="3"/>
       <c r="AF729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -25430,7 +25364,7 @@
       <c r="AE730" s="3"/>
       <c r="AF730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -25464,7 +25398,7 @@
       <c r="AE731" s="3"/>
       <c r="AF731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -25498,7 +25432,7 @@
       <c r="AE732" s="3"/>
       <c r="AF732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -25532,7 +25466,7 @@
       <c r="AE733" s="3"/>
       <c r="AF733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -25566,7 +25500,7 @@
       <c r="AE734" s="3"/>
       <c r="AF734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -25600,7 +25534,7 @@
       <c r="AE735" s="3"/>
       <c r="AF735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -25634,7 +25568,7 @@
       <c r="AE736" s="3"/>
       <c r="AF736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -25668,7 +25602,7 @@
       <c r="AE737" s="3"/>
       <c r="AF737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -25702,7 +25636,7 @@
       <c r="AE738" s="3"/>
       <c r="AF738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -25736,7 +25670,7 @@
       <c r="AE739" s="3"/>
       <c r="AF739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -25770,7 +25704,7 @@
       <c r="AE740" s="3"/>
       <c r="AF740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -25804,7 +25738,7 @@
       <c r="AE741" s="3"/>
       <c r="AF741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -25838,7 +25772,7 @@
       <c r="AE742" s="3"/>
       <c r="AF742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -25872,7 +25806,7 @@
       <c r="AE743" s="3"/>
       <c r="AF743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -25906,7 +25840,7 @@
       <c r="AE744" s="3"/>
       <c r="AF744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -25940,7 +25874,7 @@
       <c r="AE745" s="3"/>
       <c r="AF745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -25974,7 +25908,7 @@
       <c r="AE746" s="3"/>
       <c r="AF746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -26008,7 +25942,7 @@
       <c r="AE747" s="3"/>
       <c r="AF747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -26042,7 +25976,7 @@
       <c r="AE748" s="3"/>
       <c r="AF748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -26076,7 +26010,7 @@
       <c r="AE749" s="3"/>
       <c r="AF749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -26110,7 +26044,7 @@
       <c r="AE750" s="3"/>
       <c r="AF750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -26144,7 +26078,7 @@
       <c r="AE751" s="3"/>
       <c r="AF751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -26178,7 +26112,7 @@
       <c r="AE752" s="3"/>
       <c r="AF752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -26212,7 +26146,7 @@
       <c r="AE753" s="3"/>
       <c r="AF753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -26246,7 +26180,7 @@
       <c r="AE754" s="3"/>
       <c r="AF754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -26280,7 +26214,7 @@
       <c r="AE755" s="3"/>
       <c r="AF755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -26314,7 +26248,7 @@
       <c r="AE756" s="3"/>
       <c r="AF756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -26348,7 +26282,7 @@
       <c r="AE757" s="3"/>
       <c r="AF757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -26382,7 +26316,7 @@
       <c r="AE758" s="3"/>
       <c r="AF758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -26416,7 +26350,7 @@
       <c r="AE759" s="3"/>
       <c r="AF759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -26450,7 +26384,7 @@
       <c r="AE760" s="3"/>
       <c r="AF760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -26484,7 +26418,7 @@
       <c r="AE761" s="3"/>
       <c r="AF761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -26518,7 +26452,7 @@
       <c r="AE762" s="3"/>
       <c r="AF762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -26552,7 +26486,7 @@
       <c r="AE763" s="3"/>
       <c r="AF763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -26586,7 +26520,7 @@
       <c r="AE764" s="3"/>
       <c r="AF764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -26620,7 +26554,7 @@
       <c r="AE765" s="3"/>
       <c r="AF765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -26654,7 +26588,7 @@
       <c r="AE766" s="3"/>
       <c r="AF766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -26688,7 +26622,7 @@
       <c r="AE767" s="3"/>
       <c r="AF767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -26722,7 +26656,7 @@
       <c r="AE768" s="3"/>
       <c r="AF768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -26756,7 +26690,7 @@
       <c r="AE769" s="3"/>
       <c r="AF769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -26790,7 +26724,7 @@
       <c r="AE770" s="3"/>
       <c r="AF770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -26824,7 +26758,7 @@
       <c r="AE771" s="3"/>
       <c r="AF771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -26858,7 +26792,7 @@
       <c r="AE772" s="3"/>
       <c r="AF772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -26892,7 +26826,7 @@
       <c r="AE773" s="3"/>
       <c r="AF773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -26926,7 +26860,7 @@
       <c r="AE774" s="3"/>
       <c r="AF774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -26960,7 +26894,7 @@
       <c r="AE775" s="3"/>
       <c r="AF775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -26994,7 +26928,7 @@
       <c r="AE776" s="3"/>
       <c r="AF776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -27028,7 +26962,7 @@
       <c r="AE777" s="3"/>
       <c r="AF777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -27062,7 +26996,7 @@
       <c r="AE778" s="3"/>
       <c r="AF778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -27096,7 +27030,7 @@
       <c r="AE779" s="3"/>
       <c r="AF779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -27130,7 +27064,7 @@
       <c r="AE780" s="3"/>
       <c r="AF780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -27164,7 +27098,7 @@
       <c r="AE781" s="3"/>
       <c r="AF781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -27198,7 +27132,7 @@
       <c r="AE782" s="3"/>
       <c r="AF782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -27232,7 +27166,7 @@
       <c r="AE783" s="3"/>
       <c r="AF783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -27266,7 +27200,7 @@
       <c r="AE784" s="3"/>
       <c r="AF784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -27300,7 +27234,7 @@
       <c r="AE785" s="3"/>
       <c r="AF785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -27334,7 +27268,7 @@
       <c r="AE786" s="3"/>
       <c r="AF786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -27368,7 +27302,7 @@
       <c r="AE787" s="3"/>
       <c r="AF787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -27402,7 +27336,7 @@
       <c r="AE788" s="3"/>
       <c r="AF788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -27436,7 +27370,7 @@
       <c r="AE789" s="3"/>
       <c r="AF789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -27470,7 +27404,7 @@
       <c r="AE790" s="3"/>
       <c r="AF790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -27504,7 +27438,7 @@
       <c r="AE791" s="3"/>
       <c r="AF791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -27538,7 +27472,7 @@
       <c r="AE792" s="3"/>
       <c r="AF792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -27572,7 +27506,7 @@
       <c r="AE793" s="3"/>
       <c r="AF793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -27606,7 +27540,7 @@
       <c r="AE794" s="3"/>
       <c r="AF794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -27640,7 +27574,7 @@
       <c r="AE795" s="3"/>
       <c r="AF795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -27674,7 +27608,7 @@
       <c r="AE796" s="3"/>
       <c r="AF796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -27708,7 +27642,7 @@
       <c r="AE797" s="3"/>
       <c r="AF797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -27742,7 +27676,7 @@
       <c r="AE798" s="3"/>
       <c r="AF798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -27776,7 +27710,7 @@
       <c r="AE799" s="3"/>
       <c r="AF799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -27810,7 +27744,7 @@
       <c r="AE800" s="3"/>
       <c r="AF800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -27844,7 +27778,7 @@
       <c r="AE801" s="3"/>
       <c r="AF801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -27878,7 +27812,7 @@
       <c r="AE802" s="3"/>
       <c r="AF802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -27912,7 +27846,7 @@
       <c r="AE803" s="3"/>
       <c r="AF803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -27946,7 +27880,7 @@
       <c r="AE804" s="3"/>
       <c r="AF804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -27980,7 +27914,7 @@
       <c r="AE805" s="3"/>
       <c r="AF805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -28014,7 +27948,7 @@
       <c r="AE806" s="3"/>
       <c r="AF806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -28048,7 +27982,7 @@
       <c r="AE807" s="3"/>
       <c r="AF807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -28082,7 +28016,7 @@
       <c r="AE808" s="3"/>
       <c r="AF808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -28116,7 +28050,7 @@
       <c r="AE809" s="3"/>
       <c r="AF809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -28150,7 +28084,7 @@
       <c r="AE810" s="3"/>
       <c r="AF810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -28184,7 +28118,7 @@
       <c r="AE811" s="3"/>
       <c r="AF811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -28218,7 +28152,7 @@
       <c r="AE812" s="3"/>
       <c r="AF812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -28252,7 +28186,7 @@
       <c r="AE813" s="3"/>
       <c r="AF813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -28286,7 +28220,7 @@
       <c r="AE814" s="3"/>
       <c r="AF814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -28320,7 +28254,7 @@
       <c r="AE815" s="3"/>
       <c r="AF815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -28354,7 +28288,7 @@
       <c r="AE816" s="3"/>
       <c r="AF816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -28388,7 +28322,7 @@
       <c r="AE817" s="3"/>
       <c r="AF817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -28422,7 +28356,7 @@
       <c r="AE818" s="3"/>
       <c r="AF818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -28456,7 +28390,7 @@
       <c r="AE819" s="3"/>
       <c r="AF819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -28490,7 +28424,7 @@
       <c r="AE820" s="3"/>
       <c r="AF820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -28524,7 +28458,7 @@
       <c r="AE821" s="3"/>
       <c r="AF821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -28558,7 +28492,7 @@
       <c r="AE822" s="3"/>
       <c r="AF822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -28592,7 +28526,7 @@
       <c r="AE823" s="3"/>
       <c r="AF823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -28626,7 +28560,7 @@
       <c r="AE824" s="3"/>
       <c r="AF824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -28660,7 +28594,7 @@
       <c r="AE825" s="3"/>
       <c r="AF825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -28694,7 +28628,7 @@
       <c r="AE826" s="3"/>
       <c r="AF826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -28728,7 +28662,7 @@
       <c r="AE827" s="3"/>
       <c r="AF827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -28762,7 +28696,7 @@
       <c r="AE828" s="3"/>
       <c r="AF828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -28796,7 +28730,7 @@
       <c r="AE829" s="3"/>
       <c r="AF829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -28830,7 +28764,7 @@
       <c r="AE830" s="3"/>
       <c r="AF830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -28864,7 +28798,7 @@
       <c r="AE831" s="3"/>
       <c r="AF831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -28898,7 +28832,7 @@
       <c r="AE832" s="3"/>
       <c r="AF832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -28932,7 +28866,7 @@
       <c r="AE833" s="3"/>
       <c r="AF833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -28966,7 +28900,7 @@
       <c r="AE834" s="3"/>
       <c r="AF834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -29000,7 +28934,7 @@
       <c r="AE835" s="3"/>
       <c r="AF835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -29034,7 +28968,7 @@
       <c r="AE836" s="3"/>
       <c r="AF836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -29068,7 +29002,7 @@
       <c r="AE837" s="3"/>
       <c r="AF837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -29102,7 +29036,7 @@
       <c r="AE838" s="3"/>
       <c r="AF838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -29136,7 +29070,7 @@
       <c r="AE839" s="3"/>
       <c r="AF839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -29170,7 +29104,7 @@
       <c r="AE840" s="3"/>
       <c r="AF840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -29204,7 +29138,7 @@
       <c r="AE841" s="3"/>
       <c r="AF841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -29238,7 +29172,7 @@
       <c r="AE842" s="3"/>
       <c r="AF842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -29272,7 +29206,7 @@
       <c r="AE843" s="3"/>
       <c r="AF843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -29306,7 +29240,7 @@
       <c r="AE844" s="3"/>
       <c r="AF844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -29340,7 +29274,7 @@
       <c r="AE845" s="3"/>
       <c r="AF845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -29374,7 +29308,7 @@
       <c r="AE846" s="3"/>
       <c r="AF846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -29408,7 +29342,7 @@
       <c r="AE847" s="3"/>
       <c r="AF847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -29442,7 +29376,7 @@
       <c r="AE848" s="3"/>
       <c r="AF848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -29476,7 +29410,7 @@
       <c r="AE849" s="3"/>
       <c r="AF849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -29510,7 +29444,7 @@
       <c r="AE850" s="3"/>
       <c r="AF850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -29544,7 +29478,7 @@
       <c r="AE851" s="3"/>
       <c r="AF851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -29578,7 +29512,7 @@
       <c r="AE852" s="3"/>
       <c r="AF852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -29612,7 +29546,7 @@
       <c r="AE853" s="3"/>
       <c r="AF853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -29646,7 +29580,7 @@
       <c r="AE854" s="3"/>
       <c r="AF854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -29680,7 +29614,7 @@
       <c r="AE855" s="3"/>
       <c r="AF855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -29714,7 +29648,7 @@
       <c r="AE856" s="3"/>
       <c r="AF856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -29748,7 +29682,7 @@
       <c r="AE857" s="3"/>
       <c r="AF857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -29782,7 +29716,7 @@
       <c r="AE858" s="3"/>
       <c r="AF858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -29816,7 +29750,7 @@
       <c r="AE859" s="3"/>
       <c r="AF859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -29850,7 +29784,7 @@
       <c r="AE860" s="3"/>
       <c r="AF860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -29884,7 +29818,7 @@
       <c r="AE861" s="3"/>
       <c r="AF861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -29918,7 +29852,7 @@
       <c r="AE862" s="3"/>
       <c r="AF862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -29952,7 +29886,7 @@
       <c r="AE863" s="3"/>
       <c r="AF863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -29986,7 +29920,7 @@
       <c r="AE864" s="3"/>
       <c r="AF864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -30020,7 +29954,7 @@
       <c r="AE865" s="3"/>
       <c r="AF865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -30054,7 +29988,7 @@
       <c r="AE866" s="3"/>
       <c r="AF866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -30088,7 +30022,7 @@
       <c r="AE867" s="3"/>
       <c r="AF867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -30122,7 +30056,7 @@
       <c r="AE868" s="3"/>
       <c r="AF868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -30156,7 +30090,7 @@
       <c r="AE869" s="3"/>
       <c r="AF869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -30190,7 +30124,7 @@
       <c r="AE870" s="3"/>
       <c r="AF870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -30224,7 +30158,7 @@
       <c r="AE871" s="3"/>
       <c r="AF871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -30258,7 +30192,7 @@
       <c r="AE872" s="3"/>
       <c r="AF872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -30292,7 +30226,7 @@
       <c r="AE873" s="3"/>
       <c r="AF873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -30326,7 +30260,7 @@
       <c r="AE874" s="3"/>
       <c r="AF874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -30360,7 +30294,7 @@
       <c r="AE875" s="3"/>
       <c r="AF875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -30394,7 +30328,7 @@
       <c r="AE876" s="3"/>
       <c r="AF876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -30428,7 +30362,7 @@
       <c r="AE877" s="3"/>
       <c r="AF877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -30462,7 +30396,7 @@
       <c r="AE878" s="3"/>
       <c r="AF878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -30496,7 +30430,7 @@
       <c r="AE879" s="3"/>
       <c r="AF879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -30530,7 +30464,7 @@
       <c r="AE880" s="3"/>
       <c r="AF880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -30564,7 +30498,7 @@
       <c r="AE881" s="3"/>
       <c r="AF881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -30598,7 +30532,7 @@
       <c r="AE882" s="3"/>
       <c r="AF882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -30632,7 +30566,7 @@
       <c r="AE883" s="3"/>
       <c r="AF883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -30666,7 +30600,7 @@
       <c r="AE884" s="3"/>
       <c r="AF884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -30700,7 +30634,7 @@
       <c r="AE885" s="3"/>
       <c r="AF885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -30734,7 +30668,7 @@
       <c r="AE886" s="3"/>
       <c r="AF886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -30768,7 +30702,7 @@
       <c r="AE887" s="3"/>
       <c r="AF887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -30802,7 +30736,7 @@
       <c r="AE888" s="3"/>
       <c r="AF888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -30836,7 +30770,7 @@
       <c r="AE889" s="3"/>
       <c r="AF889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -30870,7 +30804,7 @@
       <c r="AE890" s="3"/>
       <c r="AF890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -30904,7 +30838,7 @@
       <c r="AE891" s="3"/>
       <c r="AF891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -30938,7 +30872,7 @@
       <c r="AE892" s="3"/>
       <c r="AF892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -30972,7 +30906,7 @@
       <c r="AE893" s="3"/>
       <c r="AF893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -31006,7 +30940,7 @@
       <c r="AE894" s="3"/>
       <c r="AF894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -31040,7 +30974,7 @@
       <c r="AE895" s="3"/>
       <c r="AF895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -31074,7 +31008,7 @@
       <c r="AE896" s="3"/>
       <c r="AF896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -31108,7 +31042,7 @@
       <c r="AE897" s="3"/>
       <c r="AF897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -31142,7 +31076,7 @@
       <c r="AE898" s="3"/>
       <c r="AF898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -31176,7 +31110,7 @@
       <c r="AE899" s="3"/>
       <c r="AF899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -31210,7 +31144,7 @@
       <c r="AE900" s="3"/>
       <c r="AF900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -31244,7 +31178,7 @@
       <c r="AE901" s="3"/>
       <c r="AF901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -31278,7 +31212,7 @@
       <c r="AE902" s="3"/>
       <c r="AF902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -31312,7 +31246,7 @@
       <c r="AE903" s="3"/>
       <c r="AF903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -31346,7 +31280,7 @@
       <c r="AE904" s="3"/>
       <c r="AF904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -31380,7 +31314,7 @@
       <c r="AE905" s="3"/>
       <c r="AF905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -31414,7 +31348,7 @@
       <c r="AE906" s="3"/>
       <c r="AF906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -31448,7 +31382,7 @@
       <c r="AE907" s="3"/>
       <c r="AF907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -31482,7 +31416,7 @@
       <c r="AE908" s="3"/>
       <c r="AF908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -31516,7 +31450,7 @@
       <c r="AE909" s="3"/>
       <c r="AF909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -31550,7 +31484,7 @@
       <c r="AE910" s="3"/>
       <c r="AF910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -31584,7 +31518,7 @@
       <c r="AE911" s="3"/>
       <c r="AF911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -31618,7 +31552,7 @@
       <c r="AE912" s="3"/>
       <c r="AF912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -31652,7 +31586,7 @@
       <c r="AE913" s="3"/>
       <c r="AF913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -31686,7 +31620,7 @@
       <c r="AE914" s="3"/>
       <c r="AF914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -31720,7 +31654,7 @@
       <c r="AE915" s="3"/>
       <c r="AF915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -31754,7 +31688,7 @@
       <c r="AE916" s="3"/>
       <c r="AF916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -31788,7 +31722,7 @@
       <c r="AE917" s="3"/>
       <c r="AF917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -31822,7 +31756,7 @@
       <c r="AE918" s="3"/>
       <c r="AF918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -31856,7 +31790,7 @@
       <c r="AE919" s="3"/>
       <c r="AF919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -31890,7 +31824,7 @@
       <c r="AE920" s="3"/>
       <c r="AF920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -31924,7 +31858,7 @@
       <c r="AE921" s="3"/>
       <c r="AF921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -31958,7 +31892,7 @@
       <c r="AE922" s="3"/>
       <c r="AF922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -31992,7 +31926,7 @@
       <c r="AE923" s="3"/>
       <c r="AF923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -32026,7 +31960,7 @@
       <c r="AE924" s="3"/>
       <c r="AF924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -32060,7 +31994,7 @@
       <c r="AE925" s="3"/>
       <c r="AF925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -32094,7 +32028,7 @@
       <c r="AE926" s="3"/>
       <c r="AF926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -32128,7 +32062,7 @@
       <c r="AE927" s="3"/>
       <c r="AF927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -32162,7 +32096,7 @@
       <c r="AE928" s="3"/>
       <c r="AF928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -32196,7 +32130,7 @@
       <c r="AE929" s="3"/>
       <c r="AF929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -32230,7 +32164,7 @@
       <c r="AE930" s="3"/>
       <c r="AF930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -32264,7 +32198,7 @@
       <c r="AE931" s="3"/>
       <c r="AF931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -32298,7 +32232,7 @@
       <c r="AE932" s="3"/>
       <c r="AF932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -32332,7 +32266,7 @@
       <c r="AE933" s="3"/>
       <c r="AF933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -32366,7 +32300,7 @@
       <c r="AE934" s="3"/>
       <c r="AF934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -32400,7 +32334,7 @@
       <c r="AE935" s="3"/>
       <c r="AF935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -32434,7 +32368,7 @@
       <c r="AE936" s="3"/>
       <c r="AF936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -32468,7 +32402,7 @@
       <c r="AE937" s="3"/>
       <c r="AF937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -32502,7 +32436,7 @@
       <c r="AE938" s="3"/>
       <c r="AF938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -32536,7 +32470,7 @@
       <c r="AE939" s="3"/>
       <c r="AF939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -32570,7 +32504,7 @@
       <c r="AE940" s="3"/>
       <c r="AF940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -32604,7 +32538,7 @@
       <c r="AE941" s="3"/>
       <c r="AF941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -32638,7 +32572,7 @@
       <c r="AE942" s="3"/>
       <c r="AF942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -32672,7 +32606,7 @@
       <c r="AE943" s="3"/>
       <c r="AF943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -32706,7 +32640,7 @@
       <c r="AE944" s="3"/>
       <c r="AF944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -32740,7 +32674,7 @@
       <c r="AE945" s="3"/>
       <c r="AF945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -32774,7 +32708,7 @@
       <c r="AE946" s="3"/>
       <c r="AF946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -32808,7 +32742,7 @@
       <c r="AE947" s="3"/>
       <c r="AF947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -32842,7 +32776,7 @@
       <c r="AE948" s="3"/>
       <c r="AF948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -32876,7 +32810,7 @@
       <c r="AE949" s="3"/>
       <c r="AF949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -32910,7 +32844,7 @@
       <c r="AE950" s="3"/>
       <c r="AF950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -32944,7 +32878,7 @@
       <c r="AE951" s="3"/>
       <c r="AF951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -32978,7 +32912,7 @@
       <c r="AE952" s="3"/>
       <c r="AF952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -33012,7 +32946,7 @@
       <c r="AE953" s="3"/>
       <c r="AF953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -33046,7 +32980,7 @@
       <c r="AE954" s="3"/>
       <c r="AF954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -33080,7 +33014,7 @@
       <c r="AE955" s="3"/>
       <c r="AF955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -33114,7 +33048,7 @@
       <c r="AE956" s="3"/>
       <c r="AF956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -33148,7 +33082,7 @@
       <c r="AE957" s="3"/>
       <c r="AF957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -33182,7 +33116,7 @@
       <c r="AE958" s="3"/>
       <c r="AF958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -33216,7 +33150,7 @@
       <c r="AE959" s="3"/>
       <c r="AF959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -33250,7 +33184,7 @@
       <c r="AE960" s="3"/>
       <c r="AF960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -33284,7 +33218,7 @@
       <c r="AE961" s="3"/>
       <c r="AF961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -33318,7 +33252,7 @@
       <c r="AE962" s="3"/>
       <c r="AF962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -33352,7 +33286,7 @@
       <c r="AE963" s="3"/>
       <c r="AF963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -33386,7 +33320,7 @@
       <c r="AE964" s="3"/>
       <c r="AF964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -33420,7 +33354,7 @@
       <c r="AE965" s="3"/>
       <c r="AF965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -33454,7 +33388,7 @@
       <c r="AE966" s="3"/>
       <c r="AF966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -33488,7 +33422,7 @@
       <c r="AE967" s="3"/>
       <c r="AF967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -33522,7 +33456,7 @@
       <c r="AE968" s="3"/>
       <c r="AF968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -33556,7 +33490,7 @@
       <c r="AE969" s="3"/>
       <c r="AF969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -33590,7 +33524,7 @@
       <c r="AE970" s="3"/>
       <c r="AF970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -33624,7 +33558,7 @@
       <c r="AE971" s="3"/>
       <c r="AF971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -33658,7 +33592,7 @@
       <c r="AE972" s="3"/>
       <c r="AF972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -33692,7 +33626,7 @@
       <c r="AE973" s="3"/>
       <c r="AF973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -33726,7 +33660,7 @@
       <c r="AE974" s="3"/>
       <c r="AF974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -33760,7 +33694,7 @@
       <c r="AE975" s="3"/>
       <c r="AF975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -33794,7 +33728,7 @@
       <c r="AE976" s="3"/>
       <c r="AF976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -33828,7 +33762,7 @@
       <c r="AE977" s="3"/>
       <c r="AF977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -33862,7 +33796,7 @@
       <c r="AE978" s="3"/>
       <c r="AF978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -33896,7 +33830,7 @@
       <c r="AE979" s="3"/>
       <c r="AF979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -33930,7 +33864,7 @@
       <c r="AE980" s="3"/>
       <c r="AF980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -33964,7 +33898,7 @@
       <c r="AE981" s="3"/>
       <c r="AF981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -33998,7 +33932,7 @@
       <c r="AE982" s="3"/>
       <c r="AF982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -34032,7 +33966,7 @@
       <c r="AE983" s="3"/>
       <c r="AF983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -34066,7 +34000,7 @@
       <c r="AE984" s="3"/>
       <c r="AF984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -34100,7 +34034,7 @@
       <c r="AE985" s="3"/>
       <c r="AF985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -34134,7 +34068,7 @@
       <c r="AE986" s="3"/>
       <c r="AF986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -34168,7 +34102,7 @@
       <c r="AE987" s="3"/>
       <c r="AF987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -34202,7 +34136,7 @@
       <c r="AE988" s="3"/>
       <c r="AF988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -34236,7 +34170,7 @@
       <c r="AE989" s="3"/>
       <c r="AF989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -34270,7 +34204,7 @@
       <c r="AE990" s="3"/>
       <c r="AF990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -34304,7 +34238,7 @@
       <c r="AE991" s="3"/>
       <c r="AF991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -34338,7 +34272,7 @@
       <c r="AE992" s="3"/>
       <c r="AF992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -34372,7 +34306,7 @@
       <c r="AE993" s="3"/>
       <c r="AF993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -34406,7 +34340,7 @@
       <c r="AE994" s="3"/>
       <c r="AF994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -34442,24 +34376,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:N5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2"/>
-    <hyperlink r:id="rId2" ref="P3"/>
+    <hyperlink ref="P2" r:id="rId1" display="https://s9.imslp.org/files/imglnks/usimg/3/36/IMSLP480058-PMLP130014-op_107,_Variations_-_Haendel.pdf"/>
+    <hyperlink ref="P3" r:id="rId2" display="http://maurogiuliani.free.fr/partitions/Op%20114%20Gran%20Variazioni%20sopra%20l%20aria%20favorita%20O%20cara%20memoria%20del%20Sig%20Carafa.pdf"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>